--- a/data/panelapp/uk/COVID-19 research.xlsx
+++ b/data/panelapp/uk/COVID-19 research.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E692"/>
+  <dimension ref="A1:F692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673650</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673662</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673665</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673668</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673671</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673674</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673676</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673679</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673681</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673684</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673686</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673689</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673691</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673694</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673696</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673699</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673702</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673704</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673707</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673709</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673712</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673714</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673717</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673719</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673722</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673724</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673727</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673729</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673732</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673734</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673737</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673739</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673743</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673745</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673748</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673750</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673752</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673755</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673757</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673760</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673762</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673765</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673768</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673770</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673773</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673776</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673778</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673780</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673783</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673785</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673788</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673790</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673793</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673796</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673798</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673801</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673803</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673806</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673808</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673811</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673813</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673815</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673818</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673820</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673824</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2104,6 +2434,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673827</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2129,6 +2464,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673829</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2154,6 +2494,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673832</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2179,6 +2524,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673834</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2204,6 +2554,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673837</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2229,6 +2584,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673839</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2254,6 +2614,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673842</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2279,6 +2644,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673844</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2304,6 +2674,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673847</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2329,6 +2704,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673849</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2354,6 +2734,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673852</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2379,6 +2764,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673856</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2404,6 +2794,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673859</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2429,6 +2824,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673862</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2454,6 +2854,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673864</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2479,6 +2884,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673867</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2504,6 +2914,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673869</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2529,6 +2944,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673871</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2554,6 +2974,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673874</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2579,6 +3004,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673876</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2604,6 +3034,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673879</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2629,6 +3064,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673881</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2654,6 +3094,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673884</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2679,6 +3124,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673886</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2704,6 +3154,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673889</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2729,6 +3184,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673891</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2754,6 +3214,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673894</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2779,6 +3244,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673897</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2804,6 +3274,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673900</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2829,6 +3304,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673903</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2854,6 +3334,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673905</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2879,6 +3364,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673907</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2904,6 +3394,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673910</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2929,6 +3424,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673912</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2954,6 +3454,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673915</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2979,6 +3484,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673917</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3004,6 +3514,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673920</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3029,6 +3544,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673922</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3054,6 +3574,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673924</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3079,6 +3604,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673927</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3104,6 +3634,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673929</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3129,6 +3664,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673932</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3154,6 +3694,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673934</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3179,6 +3724,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673939</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3204,6 +3754,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673942</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3229,6 +3784,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673944</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3254,6 +3814,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673947</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3279,6 +3844,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673949</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3304,6 +3874,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673952</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3329,6 +3904,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673954</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3354,6 +3934,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673957</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3379,6 +3964,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673959</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3404,6 +3994,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673961</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3429,6 +4024,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673964</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3454,6 +4054,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673966</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3479,6 +4084,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673969</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3504,6 +4114,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673971</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3529,6 +4144,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673974</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3554,6 +4174,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673976</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3579,6 +4204,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673979</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3604,6 +4234,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673981</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3629,6 +4264,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673984</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3654,6 +4294,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673986</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3679,6 +4324,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673991</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3704,6 +4354,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673994</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3729,6 +4384,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673996</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3754,6 +4414,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.673999</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3779,6 +4444,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674001</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3804,6 +4474,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674004</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3829,6 +4504,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674006</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3854,6 +4534,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674009</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3879,6 +4564,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674011</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3904,6 +4594,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674014</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3929,6 +4624,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674016</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3954,6 +4654,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674019</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3979,6 +4684,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674021</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4004,6 +4714,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674024</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4029,6 +4744,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674026</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4054,6 +4774,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674028</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4079,6 +4804,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674031</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4104,6 +4834,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674033</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4129,6 +4864,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674036</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4154,6 +4894,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674038</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4179,6 +4924,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674041</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4204,6 +4954,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674043</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4229,6 +4984,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674046</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4254,6 +5014,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674048</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4279,6 +5044,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674051</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4304,6 +5074,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674053</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4329,6 +5104,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674056</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4354,6 +5134,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674058</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4379,6 +5164,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674061</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4404,6 +5194,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674063</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4429,6 +5224,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674065</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4454,6 +5254,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674068</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4479,6 +5284,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674070</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4504,6 +5314,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674073</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4529,6 +5344,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674075</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4554,6 +5374,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674078</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4579,6 +5404,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674080</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4604,6 +5434,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674083</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4629,6 +5464,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674085</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4654,6 +5494,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674087</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4679,6 +5524,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674090</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4704,6 +5554,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674092</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4729,6 +5584,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674095</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4754,6 +5614,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674097</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4779,6 +5644,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674101</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4804,6 +5674,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674104</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4829,6 +5704,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674107</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4854,6 +5734,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674109</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4879,6 +5764,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674112</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4904,6 +5794,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674114</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4929,6 +5824,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674117</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4954,6 +5854,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674119</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4979,6 +5884,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674121</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5004,6 +5914,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674124</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5029,6 +5944,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674126</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5054,6 +5974,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674129</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -5079,6 +6004,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674131</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -5104,6 +6034,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674134</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -5129,6 +6064,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674136</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -5154,6 +6094,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674139</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -5179,6 +6124,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674141</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -5204,6 +6154,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674143</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -5229,6 +6184,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674146</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -5254,6 +6214,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674148</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -5279,6 +6244,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674151</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -5304,6 +6274,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674153</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -5329,6 +6304,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674156</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -5354,6 +6334,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674158</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -5379,6 +6364,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674160</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -5404,6 +6394,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674163</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -5429,6 +6424,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674165</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -5454,6 +6454,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674168</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5479,6 +6484,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674171</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5504,6 +6514,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674174</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -5529,6 +6544,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674176</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5554,6 +6574,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674178</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5579,6 +6604,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674181</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5604,6 +6634,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674183</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5629,6 +6664,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674186</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5654,6 +6694,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674188</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -5679,6 +6724,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674191</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5704,6 +6754,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674193</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5729,6 +6784,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674195</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5754,6 +6814,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674198</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5779,6 +6844,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674200</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5804,6 +6874,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674203</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5829,6 +6904,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674205</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5854,6 +6934,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674208</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5879,6 +6964,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674210</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5904,6 +6994,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674213</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5929,6 +7024,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674215</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5954,6 +7054,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674217</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5979,6 +7084,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674220</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6004,6 +7114,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674222</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -6029,6 +7144,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674225</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -6054,6 +7174,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674227</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -6079,6 +7204,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674230</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -6104,6 +7234,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674232</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -6129,6 +7264,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674235</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -6154,6 +7294,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674237</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -6179,6 +7324,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674239</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -6204,6 +7354,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674242</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -6229,6 +7384,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674244</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -6254,6 +7414,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674247</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -6279,6 +7444,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674251</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -6304,6 +7474,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674254</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -6329,6 +7504,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674256</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -6354,6 +7534,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674259</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -6379,6 +7564,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674261</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -6404,6 +7594,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674263</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -6429,6 +7624,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674266</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -6454,6 +7654,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674268</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -6479,6 +7684,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674271</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -6504,6 +7714,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674273</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -6529,6 +7744,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674276</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -6554,6 +7774,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674278</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -6579,6 +7804,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674281</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -6604,6 +7834,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674283</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -6629,6 +7864,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674285</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -6654,6 +7894,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674288</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -6679,6 +7924,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674290</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -6704,6 +7954,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674293</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -6729,6 +7984,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674295</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -6754,6 +8014,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674298</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -6779,6 +8044,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674300</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -6804,6 +8074,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674302</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -6829,6 +8104,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674305</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -6854,6 +8134,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674307</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -6879,6 +8164,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674310</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -6904,6 +8194,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674312</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -6929,6 +8224,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674315</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -6954,6 +8254,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674317</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -6979,6 +8284,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674320</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -7004,6 +8314,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674322</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -7029,6 +8344,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674324</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -7054,6 +8374,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674327</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -7079,6 +8404,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674329</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -7104,6 +8434,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674332</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -7129,6 +8464,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674334</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -7154,6 +8494,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674337</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -7179,6 +8524,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674340</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -7204,6 +8554,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674342</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -7229,6 +8584,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674345</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -7254,6 +8614,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674347</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -7279,6 +8644,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674350</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -7304,6 +8674,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674352</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -7329,6 +8704,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674354</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -7354,6 +8734,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674357</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -7379,6 +8764,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674359</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -7404,6 +8794,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674362</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -7429,6 +8824,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674364</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -7454,6 +8854,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674366</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -7479,6 +8884,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674369</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -7504,6 +8914,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674371</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -7529,6 +8944,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674374</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -7554,6 +8974,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674376</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -7579,6 +9004,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674379</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -7604,6 +9034,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674381</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -7629,6 +9064,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674384</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -7654,6 +9094,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674386</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -7679,6 +9124,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674388</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -7704,6 +9154,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674391</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -7729,6 +9184,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674393</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -7754,6 +9214,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674396</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -7779,6 +9244,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674398</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -7804,6 +9274,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674401</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -7829,6 +9304,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674403</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -7854,6 +9334,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674405</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -7879,6 +9364,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674408</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -7904,6 +9394,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674410</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -7929,6 +9424,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674413</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -7954,6 +9454,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674415</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -7979,6 +9484,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674418</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -8004,6 +9514,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674420</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -8029,6 +9544,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674423</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -8054,6 +9574,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674425</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -8079,6 +9604,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674428</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -8104,6 +9634,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674430</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -8129,6 +9664,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674432</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -8154,6 +9694,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674435</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -8179,6 +9724,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674439</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -8204,6 +9754,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674442</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -8229,6 +9784,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674444</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -8254,6 +9814,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674447</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -8279,6 +9844,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674449</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -8304,6 +9874,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674452</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -8329,6 +9904,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674454</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -8354,6 +9934,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674457</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -8379,6 +9964,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674459</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -8404,6 +9994,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674462</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -8429,6 +10024,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674464</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -8454,6 +10054,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674467</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -8479,6 +10084,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674469</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -8504,6 +10114,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674471</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -8529,6 +10144,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674474</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -8554,6 +10174,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674476</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -8579,6 +10204,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674479</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -8604,6 +10234,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674481</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -8629,6 +10264,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674484</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -8654,6 +10294,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674486</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -8679,6 +10324,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674489</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -8704,6 +10354,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674491</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -8729,6 +10384,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674494</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -8754,6 +10414,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674496</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -8779,6 +10444,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674498</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -8804,6 +10474,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674501</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -8829,6 +10504,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674503</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -8854,6 +10534,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674506</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -8879,6 +10564,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674508</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -8904,6 +10594,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674510</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -8929,6 +10624,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674513</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -8954,6 +10654,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674515</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -8979,6 +10684,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674518</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -9004,6 +10714,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674520</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -9029,6 +10744,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674523</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -9054,6 +10774,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674525</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -9079,6 +10804,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674528</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -9104,6 +10834,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674530</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -9129,6 +10864,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674533</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -9154,6 +10894,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674535</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -9179,6 +10924,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674537</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -9204,6 +10954,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674540</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -9229,6 +10984,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674542</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -9254,6 +11014,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674545</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -9279,6 +11044,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674548</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -9304,6 +11074,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674551</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -9329,6 +11104,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674553</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -9354,6 +11134,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674556</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -9379,6 +11164,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674558</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -9404,6 +11194,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674561</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -9429,6 +11224,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674563</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -9454,6 +11254,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674566</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -9479,6 +11284,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674568</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -9504,6 +11314,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674571</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -9529,6 +11344,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674573</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -9554,6 +11374,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674576</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -9579,6 +11404,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674578</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -9604,6 +11434,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674580</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -9629,6 +11464,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674583</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -9654,6 +11494,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674585</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -9679,6 +11524,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674588</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -9704,6 +11554,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674590</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -9729,6 +11584,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674593</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -9754,6 +11614,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674595</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -9779,6 +11644,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674598</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -9804,6 +11674,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674600</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -9829,6 +11704,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674603</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -9854,6 +11734,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674605</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -9879,6 +11764,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674608</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -9904,6 +11794,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674610</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -9929,6 +11824,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674613</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -9954,6 +11854,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674615</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -9979,6 +11884,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674618</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -10004,6 +11914,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674620</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -10029,6 +11944,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674622</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -10054,6 +11974,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674625</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -10079,6 +12004,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674627</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -10104,6 +12034,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674630</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -10129,6 +12064,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674632</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -10154,6 +12094,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674635</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -10179,6 +12124,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674637</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -10204,6 +12154,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674640</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -10229,6 +12184,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674642</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -10254,6 +12214,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674644</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -10279,6 +12244,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674647</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -10304,6 +12274,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674649</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -10329,6 +12304,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674652</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -10354,6 +12334,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674654</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -10379,6 +12364,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674657</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -10404,6 +12394,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674659</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -10429,6 +12424,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674662</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -10454,6 +12454,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674664</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -10479,6 +12484,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674668</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -10504,6 +12514,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674671</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -10529,6 +12544,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674673</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -10554,6 +12574,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674676</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -10579,6 +12604,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674678</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -10604,6 +12634,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674681</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -10629,6 +12664,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674683</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -10654,6 +12694,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674685</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -10679,6 +12724,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674688</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -10704,6 +12754,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674690</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -10729,6 +12784,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674693</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -10754,6 +12814,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674695</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -10779,6 +12844,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674698</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -10804,6 +12874,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674700</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -10829,6 +12904,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674703</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -10854,6 +12934,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674705</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -10879,6 +12964,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674710</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -10904,6 +12994,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674713</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -10929,6 +13024,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674715</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -10954,6 +13054,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674718</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -10979,6 +13084,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674720</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -11004,6 +13114,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674723</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -11029,6 +13144,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674726</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -11054,6 +13174,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674728</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -11079,6 +13204,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674731</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -11104,6 +13234,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674733</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -11129,6 +13264,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674736</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -11154,6 +13294,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674738</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -11179,6 +13324,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674740</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -11204,6 +13354,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674743</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -11229,6 +13384,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674745</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -11254,6 +13414,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674748</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -11279,6 +13444,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674750</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -11304,6 +13474,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674753</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -11329,6 +13504,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674755</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -11354,6 +13534,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674757</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -11379,6 +13564,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674760</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -11404,6 +13594,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674762</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -11429,6 +13624,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674765</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -11454,6 +13654,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674767</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -11479,6 +13684,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674770</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -11504,6 +13714,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674772</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -11529,6 +13744,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674775</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -11554,6 +13774,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674777</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -11579,6 +13804,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674780</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -11604,6 +13834,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674782</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -11629,6 +13864,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674784</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -11654,6 +13894,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674787</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -11679,6 +13924,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674789</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -11704,6 +13954,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674792</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -11729,6 +13984,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674794</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -11754,6 +14014,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674796</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -11779,6 +14044,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674799</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -11804,6 +14074,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674801</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -11829,6 +14104,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674804</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -11854,6 +14134,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674806</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -11879,6 +14164,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674810</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -11904,6 +14194,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674813</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -11929,6 +14224,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674816</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -11954,6 +14254,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674818</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -11979,6 +14284,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674821</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -12004,6 +14314,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674823</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -12029,6 +14344,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674826</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -12054,6 +14374,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674828</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -12079,6 +14404,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674831</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -12104,6 +14434,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674833</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -12129,6 +14464,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674836</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -12154,6 +14494,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674838</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -12179,6 +14524,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674841</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -12204,6 +14554,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674843</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -12229,6 +14584,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674846</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -12254,6 +14614,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674848</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -12279,6 +14644,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674851</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -12304,6 +14674,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674853</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -12329,6 +14704,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674856</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -12354,6 +14734,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674858</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -12379,6 +14764,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674861</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -12404,6 +14794,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674863</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -12429,6 +14824,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674866</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -12454,6 +14854,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674868</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -12479,6 +14884,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674870</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -12504,6 +14914,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674873</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -12529,6 +14944,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674875</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -12554,6 +14974,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674878</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -12579,6 +15004,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674880</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -12604,6 +15034,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674883</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -12629,6 +15064,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674885</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -12654,6 +15094,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674888</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -12679,6 +15124,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674890</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -12704,6 +15154,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674892</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -12729,6 +15184,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674895</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -12754,6 +15214,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674897</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -12779,6 +15244,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674900</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -12804,6 +15274,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674902</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -12829,6 +15304,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674905</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -12854,6 +15334,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674907</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -12879,6 +15364,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674910</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -12904,6 +15394,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674912</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -12929,6 +15424,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674915</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -12954,6 +15454,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674918</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -12979,6 +15484,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674920</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -13004,6 +15514,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674923</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -13029,6 +15544,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674925</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -13054,6 +15574,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674928</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -13079,6 +15604,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674931</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -13104,6 +15634,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674933</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -13129,6 +15664,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674936</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -13154,6 +15694,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674938</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -13179,6 +15724,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674941</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -13204,6 +15754,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674943</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -13229,6 +15784,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674946</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -13254,6 +15814,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674948</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -13279,6 +15844,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674950</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -13304,6 +15874,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674953</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -13329,6 +15904,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674955</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -13354,6 +15934,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674958</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -13379,6 +15964,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674961</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
@@ -13404,6 +15994,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674963</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
@@ -13429,6 +16024,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674966</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
@@ -13454,6 +16054,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674968</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
@@ -13479,6 +16084,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674972</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -13504,6 +16114,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674975</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -13529,6 +16144,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674977</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -13554,6 +16174,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674980</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -13579,6 +16204,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674982</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
@@ -13604,6 +16234,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674985</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
@@ -13629,6 +16264,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674987</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
@@ -13654,6 +16294,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674990</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
@@ -13679,6 +16324,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674992</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -13704,6 +16354,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674995</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
@@ -13729,6 +16384,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.674997</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -13754,6 +16414,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675000</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -13779,6 +16444,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675002</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -13804,6 +16474,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675005</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
@@ -13829,6 +16504,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675007</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -13854,6 +16534,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675010</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
@@ -13879,6 +16564,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675012</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
@@ -13904,6 +16594,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675015</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
@@ -13929,6 +16624,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675017</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
@@ -13954,6 +16654,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675020</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
@@ -13979,6 +16684,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675022</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
@@ -14004,6 +16714,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675025</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
@@ -14029,6 +16744,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675027</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
@@ -14054,6 +16774,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675030</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
@@ -14079,6 +16804,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675032</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
@@ -14104,6 +16834,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675035</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
@@ -14129,6 +16864,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675037</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
@@ -14154,6 +16894,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675040</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
@@ -14179,6 +16924,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675043</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -14204,6 +16954,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675046</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
@@ -14229,6 +16984,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675048</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
@@ -14254,6 +17014,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675051</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
@@ -14279,6 +17044,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675054</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -14304,6 +17074,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675057</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -14329,6 +17104,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675059</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
@@ -14354,6 +17134,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675062</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
@@ -14379,6 +17164,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675064</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
@@ -14404,6 +17194,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675067</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
@@ -14429,6 +17224,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675069</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
@@ -14454,6 +17254,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675072</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
@@ -14479,6 +17284,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675074</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
@@ -14504,6 +17314,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675077</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
@@ -14529,6 +17344,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675079</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
@@ -14554,6 +17374,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675082</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
@@ -14579,6 +17404,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675085</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
@@ -14604,6 +17434,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675087</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
@@ -14629,6 +17464,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675090</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
@@ -14654,6 +17494,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675093</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
@@ -14679,6 +17524,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675095</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
@@ -14704,6 +17554,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675098</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
@@ -14729,6 +17584,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675101</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -14754,6 +17614,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675103</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
@@ -14779,6 +17644,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675106</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
@@ -14804,6 +17674,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675108</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
@@ -14829,6 +17704,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675114</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
@@ -14854,6 +17734,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675117</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
@@ -14879,6 +17764,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675120</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
@@ -14904,6 +17794,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675122</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
@@ -14929,6 +17824,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675125</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
@@ -14954,6 +17854,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675128</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
@@ -14979,6 +17884,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675130</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
@@ -15004,6 +17914,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675133</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
@@ -15029,6 +17944,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675135</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
@@ -15054,6 +17974,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675138</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
@@ -15079,6 +18004,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675140</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
@@ -15104,6 +18034,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675143</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
@@ -15129,6 +18064,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675145</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
@@ -15154,6 +18094,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675148</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
@@ -15179,6 +18124,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675150</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
@@ -15204,6 +18154,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675153</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
@@ -15229,6 +18184,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675155</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
@@ -15254,6 +18214,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675158</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
@@ -15279,6 +18244,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675162</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
@@ -15304,6 +18274,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675165</t>
+        </is>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
@@ -15329,6 +18304,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675168</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
@@ -15354,6 +18334,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675170</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
@@ -15379,6 +18364,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675173</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
@@ -15404,6 +18394,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675175</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
@@ -15429,6 +18424,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675178</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
@@ -15454,6 +18454,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675180</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
@@ -15479,6 +18484,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675183</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
@@ -15504,6 +18514,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675185</t>
+        </is>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
@@ -15529,6 +18544,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675188</t>
+        </is>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
@@ -15554,6 +18574,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675190</t>
+        </is>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
@@ -15579,6 +18604,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675193</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
@@ -15604,6 +18634,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675195</t>
+        </is>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
@@ -15629,6 +18664,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675198</t>
+        </is>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
@@ -15654,6 +18694,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675200</t>
+        </is>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
@@ -15679,6 +18724,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675202</t>
+        </is>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
@@ -15704,6 +18754,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675205</t>
+        </is>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
@@ -15729,6 +18784,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675207</t>
+        </is>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
@@ -15754,6 +18814,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675210</t>
+        </is>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
@@ -15779,6 +18844,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675212</t>
+        </is>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
@@ -15804,6 +18874,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675215</t>
+        </is>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
@@ -15829,6 +18904,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675218</t>
+        </is>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
@@ -15854,6 +18934,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675220</t>
+        </is>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
@@ -15879,6 +18964,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675223</t>
+        </is>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
@@ -15904,6 +18994,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675225</t>
+        </is>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
@@ -15929,6 +19024,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675228</t>
+        </is>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
@@ -15954,6 +19054,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675230</t>
+        </is>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
@@ -15979,6 +19084,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675233</t>
+        </is>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
@@ -16004,6 +19114,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675235</t>
+        </is>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
@@ -16029,6 +19144,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675238</t>
+        </is>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
@@ -16054,6 +19174,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675240</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
@@ -16079,6 +19204,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675243</t>
+        </is>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
@@ -16104,6 +19234,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675245</t>
+        </is>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
@@ -16129,6 +19264,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675248</t>
+        </is>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
@@ -16154,6 +19294,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675250</t>
+        </is>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
@@ -16179,6 +19324,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675253</t>
+        </is>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
@@ -16204,6 +19354,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675255</t>
+        </is>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
@@ -16229,6 +19384,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675258</t>
+        </is>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
@@ -16254,6 +19414,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675261</t>
+        </is>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
@@ -16279,6 +19444,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675263</t>
+        </is>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
@@ -16304,6 +19474,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675266</t>
+        </is>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
@@ -16329,6 +19504,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675268</t>
+        </is>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
@@ -16354,6 +19534,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675271</t>
+        </is>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
@@ -16379,6 +19564,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675273</t>
+        </is>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
@@ -16404,6 +19594,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675276</t>
+        </is>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
@@ -16429,6 +19624,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675278</t>
+        </is>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
@@ -16454,6 +19654,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675281</t>
+        </is>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
@@ -16479,6 +19684,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675283</t>
+        </is>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
@@ -16504,6 +19714,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675286</t>
+        </is>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
@@ -16529,6 +19744,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675288</t>
+        </is>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
@@ -16554,6 +19774,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675290</t>
+        </is>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
@@ -16579,6 +19804,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675293</t>
+        </is>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
@@ -16604,6 +19834,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675295</t>
+        </is>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
@@ -16629,6 +19864,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675298</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
@@ -16654,6 +19894,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675301</t>
+        </is>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
@@ -16679,6 +19924,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675303</t>
+        </is>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
@@ -16704,6 +19954,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675306</t>
+        </is>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
@@ -16729,6 +19984,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675308</t>
+        </is>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
@@ -16754,6 +20014,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675311</t>
+        </is>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
@@ -16779,6 +20044,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675313</t>
+        </is>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
@@ -16804,6 +20074,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675316</t>
+        </is>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
@@ -16829,6 +20104,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675318</t>
+        </is>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
@@ -16854,6 +20134,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675321</t>
+        </is>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
@@ -16879,6 +20164,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675323</t>
+        </is>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
@@ -16904,6 +20194,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675326</t>
+        </is>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
@@ -16929,6 +20224,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675328</t>
+        </is>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
@@ -16954,6 +20254,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675331</t>
+        </is>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
@@ -16979,6 +20284,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675333</t>
+        </is>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
@@ -17004,6 +20314,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675336</t>
+        </is>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
@@ -17029,6 +20344,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675338</t>
+        </is>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
@@ -17054,6 +20374,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675341</t>
+        </is>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
@@ -17079,6 +20404,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675343</t>
+        </is>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
@@ -17104,6 +20434,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675346</t>
+        </is>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
@@ -17129,6 +20464,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675348</t>
+        </is>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
@@ -17154,6 +20494,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675351</t>
+        </is>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
@@ -17179,6 +20524,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675353</t>
+        </is>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
@@ -17204,6 +20554,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675355</t>
+        </is>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
@@ -17229,6 +20584,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675358</t>
+        </is>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
@@ -17254,6 +20614,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675360</t>
+        </is>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
@@ -17279,6 +20644,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675364</t>
+        </is>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
@@ -17304,6 +20674,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675367</t>
+        </is>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
@@ -17329,6 +20704,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675370</t>
+        </is>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
@@ -17354,6 +20734,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675372</t>
+        </is>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
@@ -17379,6 +20764,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675375</t>
+        </is>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
@@ -17404,6 +20794,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675378</t>
+        </is>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
@@ -17429,6 +20824,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675380</t>
+        </is>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
@@ -17454,6 +20854,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675382</t>
+        </is>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
@@ -17479,6 +20884,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675385</t>
+        </is>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
@@ -17504,6 +20914,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675388</t>
+        </is>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
@@ -17529,6 +20944,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675390</t>
+        </is>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
@@ -17554,6 +20974,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675393</t>
+        </is>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
@@ -17579,6 +21004,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675395</t>
+        </is>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
@@ -17604,6 +21034,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675398</t>
+        </is>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
@@ -17629,6 +21064,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675401</t>
+        </is>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
@@ -17654,6 +21094,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675403</t>
+        </is>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
@@ -17679,6 +21124,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675406</t>
+        </is>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
@@ -17704,6 +21154,11 @@
           <t>COVID-19 research</t>
         </is>
       </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675408</t>
+        </is>
+      </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
@@ -17727,6 +21182,11 @@
       <c r="E692" t="inlineStr">
         <is>
           <t>COVID-19 research</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:17.675411</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/uk/COVID-19 research.xlsx
+++ b/data/panelapp/uk/COVID-19 research.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673650</t>
+          <t>2021-10-05 14:19:48.974570</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673662</t>
+          <t>2021-10-05 14:19:48.974578</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673665</t>
+          <t>2021-10-05 14:19:48.974582</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673668</t>
+          <t>2021-10-05 14:19:48.974584</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673671</t>
+          <t>2021-10-05 14:19:48.974587</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673674</t>
+          <t>2021-10-05 14:19:48.974590</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673676</t>
+          <t>2021-10-05 14:19:48.974592</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673679</t>
+          <t>2021-10-05 14:19:48.974595</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673681</t>
+          <t>2021-10-05 14:19:48.974598</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673684</t>
+          <t>2021-10-05 14:19:48.974600</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673686</t>
+          <t>2021-10-05 14:19:48.974603</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673689</t>
+          <t>2021-10-05 14:19:48.974605</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673691</t>
+          <t>2021-10-05 14:19:48.974608</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673694</t>
+          <t>2021-10-05 14:19:48.974610</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673696</t>
+          <t>2021-10-05 14:19:48.974613</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673699</t>
+          <t>2021-10-05 14:19:48.974616</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673702</t>
+          <t>2021-10-05 14:19:48.974618</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673704</t>
+          <t>2021-10-05 14:19:48.974621</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673707</t>
+          <t>2021-10-05 14:19:48.974624</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673709</t>
+          <t>2021-10-05 14:19:48.974627</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673712</t>
+          <t>2021-10-05 14:19:48.974629</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673714</t>
+          <t>2021-10-05 14:19:48.974632</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673717</t>
+          <t>2021-10-05 14:19:48.974634</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673719</t>
+          <t>2021-10-05 14:19:48.974637</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673722</t>
+          <t>2021-10-05 14:19:48.974640</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673724</t>
+          <t>2021-10-05 14:19:48.974643</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673727</t>
+          <t>2021-10-05 14:19:48.974645</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673729</t>
+          <t>2021-10-05 14:19:48.974648</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673732</t>
+          <t>2021-10-05 14:19:48.974650</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673734</t>
+          <t>2021-10-05 14:19:48.974653</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673737</t>
+          <t>2021-10-05 14:19:48.974656</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673739</t>
+          <t>2021-10-05 14:19:48.974658</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673743</t>
+          <t>2021-10-05 14:19:48.974661</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673745</t>
+          <t>2021-10-05 14:19:48.974664</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673748</t>
+          <t>2021-10-05 14:19:48.974666</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673750</t>
+          <t>2021-10-05 14:19:48.974669</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673752</t>
+          <t>2021-10-05 14:19:48.974671</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673755</t>
+          <t>2021-10-05 14:19:48.974674</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673757</t>
+          <t>2021-10-05 14:19:48.974676</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673760</t>
+          <t>2021-10-05 14:19:48.974679</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673762</t>
+          <t>2021-10-05 14:19:48.974682</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673765</t>
+          <t>2021-10-05 14:19:48.974684</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673768</t>
+          <t>2021-10-05 14:19:48.974687</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673770</t>
+          <t>2021-10-05 14:19:48.974689</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673773</t>
+          <t>2021-10-05 14:19:48.974692</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673776</t>
+          <t>2021-10-05 14:19:48.974694</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673778</t>
+          <t>2021-10-05 14:19:48.974697</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673780</t>
+          <t>2021-10-05 14:19:48.974699</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673783</t>
+          <t>2021-10-05 14:19:48.974702</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673785</t>
+          <t>2021-10-05 14:19:48.974704</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673788</t>
+          <t>2021-10-05 14:19:48.974707</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673790</t>
+          <t>2021-10-05 14:19:48.974710</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673793</t>
+          <t>2021-10-05 14:19:48.974713</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673796</t>
+          <t>2021-10-05 14:19:48.974715</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673798</t>
+          <t>2021-10-05 14:19:48.974718</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673801</t>
+          <t>2021-10-05 14:19:48.974720</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673803</t>
+          <t>2021-10-05 14:19:48.974723</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673806</t>
+          <t>2021-10-05 14:19:48.974726</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673808</t>
+          <t>2021-10-05 14:19:48.974728</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673811</t>
+          <t>2021-10-05 14:19:48.974731</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673813</t>
+          <t>2021-10-05 14:19:48.974733</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673815</t>
+          <t>2021-10-05 14:19:48.974736</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673818</t>
+          <t>2021-10-05 14:19:48.974738</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673820</t>
+          <t>2021-10-05 14:19:48.974741</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673824</t>
+          <t>2021-10-05 14:19:48.974744</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673827</t>
+          <t>2021-10-05 14:19:48.974747</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673829</t>
+          <t>2021-10-05 14:19:48.974750</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673832</t>
+          <t>2021-10-05 14:19:48.974752</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673834</t>
+          <t>2021-10-05 14:19:48.974755</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673837</t>
+          <t>2021-10-05 14:19:48.974757</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673839</t>
+          <t>2021-10-05 14:19:48.974760</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673842</t>
+          <t>2021-10-05 14:19:48.974763</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673844</t>
+          <t>2021-10-05 14:19:48.974765</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673847</t>
+          <t>2021-10-05 14:19:48.974768</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673849</t>
+          <t>2021-10-05 14:19:48.974770</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673852</t>
+          <t>2021-10-05 14:19:48.974773</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673856</t>
+          <t>2021-10-05 14:19:48.974778</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673859</t>
+          <t>2021-10-05 14:19:48.974781</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673862</t>
+          <t>2021-10-05 14:19:48.974784</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673864</t>
+          <t>2021-10-05 14:19:48.974786</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673867</t>
+          <t>2021-10-05 14:19:48.974789</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673869</t>
+          <t>2021-10-05 14:19:48.974792</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673871</t>
+          <t>2021-10-05 14:19:48.974794</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673874</t>
+          <t>2021-10-05 14:19:48.974797</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673876</t>
+          <t>2021-10-05 14:19:48.974799</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673879</t>
+          <t>2021-10-05 14:19:48.974802</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673881</t>
+          <t>2021-10-05 14:19:48.974805</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673884</t>
+          <t>2021-10-05 14:19:48.974807</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673886</t>
+          <t>2021-10-05 14:19:48.974810</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673889</t>
+          <t>2021-10-05 14:19:48.974812</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673891</t>
+          <t>2021-10-05 14:19:48.974815</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673894</t>
+          <t>2021-10-05 14:19:48.974817</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673897</t>
+          <t>2021-10-05 14:19:48.974821</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673900</t>
+          <t>2021-10-05 14:19:48.974824</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673903</t>
+          <t>2021-10-05 14:19:48.974827</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673905</t>
+          <t>2021-10-05 14:19:48.974829</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673907</t>
+          <t>2021-10-05 14:19:48.974832</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673910</t>
+          <t>2021-10-05 14:19:48.974834</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673912</t>
+          <t>2021-10-05 14:19:48.974837</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673915</t>
+          <t>2021-10-05 14:19:48.974840</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673917</t>
+          <t>2021-10-05 14:19:48.974842</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673920</t>
+          <t>2021-10-05 14:19:48.974845</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673922</t>
+          <t>2021-10-05 14:19:48.974848</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673924</t>
+          <t>2021-10-05 14:19:48.974850</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673927</t>
+          <t>2021-10-05 14:19:48.974853</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673929</t>
+          <t>2021-10-05 14:19:48.974855</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673932</t>
+          <t>2021-10-05 14:19:48.974858</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673934</t>
+          <t>2021-10-05 14:19:48.974861</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673939</t>
+          <t>2021-10-05 14:19:48.974866</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673942</t>
+          <t>2021-10-05 14:19:48.974869</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673944</t>
+          <t>2021-10-05 14:19:48.974872</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673947</t>
+          <t>2021-10-05 14:19:48.974874</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673949</t>
+          <t>2021-10-05 14:19:48.974877</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673952</t>
+          <t>2021-10-05 14:19:48.974879</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673954</t>
+          <t>2021-10-05 14:19:48.974881</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673957</t>
+          <t>2021-10-05 14:19:48.974884</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673959</t>
+          <t>2021-10-05 14:19:48.974887</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673961</t>
+          <t>2021-10-05 14:19:48.974890</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673964</t>
+          <t>2021-10-05 14:19:48.974892</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673966</t>
+          <t>2021-10-05 14:19:48.974895</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673969</t>
+          <t>2021-10-05 14:19:48.974897</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673971</t>
+          <t>2021-10-05 14:19:48.974900</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673974</t>
+          <t>2021-10-05 14:19:48.974902</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673976</t>
+          <t>2021-10-05 14:19:48.974905</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673979</t>
+          <t>2021-10-05 14:19:48.974908</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673981</t>
+          <t>2021-10-05 14:19:48.974911</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673984</t>
+          <t>2021-10-05 14:19:48.974913</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673986</t>
+          <t>2021-10-05 14:19:48.974916</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673991</t>
+          <t>2021-10-05 14:19:48.974920</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673994</t>
+          <t>2021-10-05 14:19:48.974923</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673996</t>
+          <t>2021-10-05 14:19:48.974926</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.673999</t>
+          <t>2021-10-05 14:19:48.974928</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674001</t>
+          <t>2021-10-05 14:19:48.974931</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674004</t>
+          <t>2021-10-05 14:19:48.974934</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674006</t>
+          <t>2021-10-05 14:19:48.974936</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674009</t>
+          <t>2021-10-05 14:19:48.974939</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674011</t>
+          <t>2021-10-05 14:19:48.974942</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674014</t>
+          <t>2021-10-05 14:19:48.974944</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674016</t>
+          <t>2021-10-05 14:19:48.974947</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674019</t>
+          <t>2021-10-05 14:19:48.974949</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674021</t>
+          <t>2021-10-05 14:19:48.974952</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674024</t>
+          <t>2021-10-05 14:19:48.974954</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674026</t>
+          <t>2021-10-05 14:19:48.974957</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674028</t>
+          <t>2021-10-05 14:19:48.974960</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674031</t>
+          <t>2021-10-05 14:19:48.974962</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674033</t>
+          <t>2021-10-05 14:19:48.974965</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674036</t>
+          <t>2021-10-05 14:19:48.974968</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674038</t>
+          <t>2021-10-05 14:19:48.974970</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674041</t>
+          <t>2021-10-05 14:19:48.974973</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674043</t>
+          <t>2021-10-05 14:19:48.974975</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674046</t>
+          <t>2021-10-05 14:19:48.974978</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674048</t>
+          <t>2021-10-05 14:19:48.974981</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674051</t>
+          <t>2021-10-05 14:19:48.974984</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674053</t>
+          <t>2021-10-05 14:19:48.974986</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674056</t>
+          <t>2021-10-05 14:19:48.974989</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674058</t>
+          <t>2021-10-05 14:19:48.974991</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674061</t>
+          <t>2021-10-05 14:19:48.974994</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674063</t>
+          <t>2021-10-05 14:19:48.974996</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674065</t>
+          <t>2021-10-05 14:19:48.974999</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674068</t>
+          <t>2021-10-05 14:19:48.975001</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674070</t>
+          <t>2021-10-05 14:19:48.975004</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674073</t>
+          <t>2021-10-05 14:19:48.975007</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674075</t>
+          <t>2021-10-05 14:19:48.975009</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674078</t>
+          <t>2021-10-05 14:19:48.975012</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674080</t>
+          <t>2021-10-05 14:19:48.975015</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674083</t>
+          <t>2021-10-05 14:19:48.975017</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674085</t>
+          <t>2021-10-05 14:19:48.975019</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674087</t>
+          <t>2021-10-05 14:19:48.975022</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674090</t>
+          <t>2021-10-05 14:19:48.975025</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674092</t>
+          <t>2021-10-05 14:19:48.975028</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674095</t>
+          <t>2021-10-05 14:19:48.975030</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674097</t>
+          <t>2021-10-05 14:19:48.975033</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674101</t>
+          <t>2021-10-05 14:19:48.975038</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674104</t>
+          <t>2021-10-05 14:19:48.975040</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674107</t>
+          <t>2021-10-05 14:19:48.975043</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674109</t>
+          <t>2021-10-05 14:19:48.975046</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674112</t>
+          <t>2021-10-05 14:19:48.975048</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674114</t>
+          <t>2021-10-05 14:19:48.975051</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674117</t>
+          <t>2021-10-05 14:19:48.975053</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674119</t>
+          <t>2021-10-05 14:19:48.975056</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674121</t>
+          <t>2021-10-05 14:19:48.975058</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674124</t>
+          <t>2021-10-05 14:19:48.975061</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674126</t>
+          <t>2021-10-05 14:19:48.975064</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674129</t>
+          <t>2021-10-05 14:19:48.975066</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674131</t>
+          <t>2021-10-05 14:19:48.975069</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674134</t>
+          <t>2021-10-05 14:19:48.975071</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674136</t>
+          <t>2021-10-05 14:19:48.975074</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674139</t>
+          <t>2021-10-05 14:19:48.975076</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674141</t>
+          <t>2021-10-05 14:19:48.975079</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674143</t>
+          <t>2021-10-05 14:19:48.975081</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674146</t>
+          <t>2021-10-05 14:19:48.975084</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674148</t>
+          <t>2021-10-05 14:19:48.975103</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674151</t>
+          <t>2021-10-05 14:19:48.975106</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674153</t>
+          <t>2021-10-05 14:19:48.975109</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674156</t>
+          <t>2021-10-05 14:19:48.975111</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674158</t>
+          <t>2021-10-05 14:19:48.975114</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674160</t>
+          <t>2021-10-05 14:19:48.975116</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674163</t>
+          <t>2021-10-05 14:19:48.975119</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674165</t>
+          <t>2021-10-05 14:19:48.975122</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674168</t>
+          <t>2021-10-05 14:19:48.975124</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674171</t>
+          <t>2021-10-05 14:19:48.975128</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674174</t>
+          <t>2021-10-05 14:19:48.975130</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674176</t>
+          <t>2021-10-05 14:19:48.975133</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674178</t>
+          <t>2021-10-05 14:19:48.975136</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674181</t>
+          <t>2021-10-05 14:19:48.975138</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674183</t>
+          <t>2021-10-05 14:19:48.975141</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674186</t>
+          <t>2021-10-05 14:19:48.975144</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674188</t>
+          <t>2021-10-05 14:19:48.975146</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674191</t>
+          <t>2021-10-05 14:19:48.975149</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674193</t>
+          <t>2021-10-05 14:19:48.975152</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674195</t>
+          <t>2021-10-05 14:19:48.975154</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674198</t>
+          <t>2021-10-05 14:19:48.975157</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674200</t>
+          <t>2021-10-05 14:19:48.975159</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674203</t>
+          <t>2021-10-05 14:19:48.975162</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674205</t>
+          <t>2021-10-05 14:19:48.975165</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674208</t>
+          <t>2021-10-05 14:19:48.975167</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674210</t>
+          <t>2021-10-05 14:19:48.975170</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674213</t>
+          <t>2021-10-05 14:19:48.975173</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674215</t>
+          <t>2021-10-05 14:19:48.975175</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674217</t>
+          <t>2021-10-05 14:19:48.975178</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674220</t>
+          <t>2021-10-05 14:19:48.975181</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674222</t>
+          <t>2021-10-05 14:19:48.975184</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674225</t>
+          <t>2021-10-05 14:19:48.975186</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674227</t>
+          <t>2021-10-05 14:19:48.975189</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674230</t>
+          <t>2021-10-05 14:19:48.975192</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674232</t>
+          <t>2021-10-05 14:19:48.975195</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7267,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674235</t>
+          <t>2021-10-05 14:19:48.975197</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674237</t>
+          <t>2021-10-05 14:19:48.975200</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7327,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674239</t>
+          <t>2021-10-05 14:19:48.975203</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7357,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674242</t>
+          <t>2021-10-05 14:19:48.975205</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7387,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674244</t>
+          <t>2021-10-05 14:19:48.975208</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7417,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674247</t>
+          <t>2021-10-05 14:19:48.975210</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7447,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674251</t>
+          <t>2021-10-05 14:19:48.975215</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674254</t>
+          <t>2021-10-05 14:19:48.975218</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674256</t>
+          <t>2021-10-05 14:19:48.975221</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7537,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674259</t>
+          <t>2021-10-05 14:19:48.975224</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7567,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674261</t>
+          <t>2021-10-05 14:19:48.975226</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7597,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674263</t>
+          <t>2021-10-05 14:19:48.975229</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7627,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674266</t>
+          <t>2021-10-05 14:19:48.975231</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7657,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674268</t>
+          <t>2021-10-05 14:19:48.975234</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7687,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674271</t>
+          <t>2021-10-05 14:19:48.975236</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7717,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674273</t>
+          <t>2021-10-05 14:19:48.975239</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7747,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674276</t>
+          <t>2021-10-05 14:19:48.975242</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7777,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674278</t>
+          <t>2021-10-05 14:19:48.975244</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7807,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674281</t>
+          <t>2021-10-05 14:19:48.975247</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7837,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674283</t>
+          <t>2021-10-05 14:19:48.975250</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7867,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674285</t>
+          <t>2021-10-05 14:19:48.975253</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7897,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674288</t>
+          <t>2021-10-05 14:19:48.975255</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7927,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674290</t>
+          <t>2021-10-05 14:19:48.975258</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7957,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674293</t>
+          <t>2021-10-05 14:19:48.975260</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674295</t>
+          <t>2021-10-05 14:19:48.975263</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8017,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674298</t>
+          <t>2021-10-05 14:19:48.975265</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8047,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674300</t>
+          <t>2021-10-05 14:19:48.975268</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8077,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674302</t>
+          <t>2021-10-05 14:19:48.975271</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8107,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674305</t>
+          <t>2021-10-05 14:19:48.975273</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674307</t>
+          <t>2021-10-05 14:19:48.975276</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8167,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674310</t>
+          <t>2021-10-05 14:19:48.975278</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8197,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674312</t>
+          <t>2021-10-05 14:19:48.975281</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8227,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674315</t>
+          <t>2021-10-05 14:19:48.975284</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8257,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674317</t>
+          <t>2021-10-05 14:19:48.975286</t>
         </is>
       </c>
     </row>
@@ -8286,7 +8287,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674320</t>
+          <t>2021-10-05 14:19:48.975289</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8317,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674322</t>
+          <t>2021-10-05 14:19:48.975291</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8347,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674324</t>
+          <t>2021-10-05 14:19:48.975294</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8377,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674327</t>
+          <t>2021-10-05 14:19:48.975297</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8407,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674329</t>
+          <t>2021-10-05 14:19:48.975300</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8437,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674332</t>
+          <t>2021-10-05 14:19:48.975302</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8467,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674334</t>
+          <t>2021-10-05 14:19:48.975305</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8497,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674337</t>
+          <t>2021-10-05 14:19:48.975307</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8527,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674340</t>
+          <t>2021-10-05 14:19:48.975310</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8557,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674342</t>
+          <t>2021-10-05 14:19:48.975313</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8587,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674345</t>
+          <t>2021-10-05 14:19:48.975315</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8617,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674347</t>
+          <t>2021-10-05 14:19:48.975318</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8647,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674350</t>
+          <t>2021-10-05 14:19:48.975320</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8677,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674352</t>
+          <t>2021-10-05 14:19:48.975323</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8707,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674354</t>
+          <t>2021-10-05 14:19:48.975325</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8737,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674357</t>
+          <t>2021-10-05 14:19:48.975328</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8767,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674359</t>
+          <t>2021-10-05 14:19:48.975331</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8797,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674362</t>
+          <t>2021-10-05 14:19:48.975333</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8827,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674364</t>
+          <t>2021-10-05 14:19:48.975336</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8857,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674366</t>
+          <t>2021-10-05 14:19:48.975338</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8887,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674369</t>
+          <t>2021-10-05 14:19:48.975341</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8917,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674371</t>
+          <t>2021-10-05 14:19:48.975344</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8947,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674374</t>
+          <t>2021-10-05 14:19:48.975346</t>
         </is>
       </c>
     </row>
@@ -8976,7 +8977,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674376</t>
+          <t>2021-10-05 14:19:48.975349</t>
         </is>
       </c>
     </row>
@@ -9006,7 +9007,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674379</t>
+          <t>2021-10-05 14:19:48.975351</t>
         </is>
       </c>
     </row>
@@ -9036,7 +9037,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674381</t>
+          <t>2021-10-05 14:19:48.975354</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9067,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674384</t>
+          <t>2021-10-05 14:19:48.975357</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9097,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674386</t>
+          <t>2021-10-05 14:19:48.975359</t>
         </is>
       </c>
     </row>
@@ -9126,7 +9127,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674388</t>
+          <t>2021-10-05 14:19:48.975362</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9157,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674391</t>
+          <t>2021-10-05 14:19:48.975364</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9187,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674393</t>
+          <t>2021-10-05 14:19:48.975367</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9217,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674396</t>
+          <t>2021-10-05 14:19:48.975370</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9247,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674398</t>
+          <t>2021-10-05 14:19:48.975372</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9277,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674401</t>
+          <t>2021-10-05 14:19:48.975375</t>
         </is>
       </c>
     </row>
@@ -9306,7 +9307,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674403</t>
+          <t>2021-10-05 14:19:48.975377</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9337,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674405</t>
+          <t>2021-10-05 14:19:48.975380</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9367,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674408</t>
+          <t>2021-10-05 14:19:48.975382</t>
         </is>
       </c>
     </row>
@@ -9396,7 +9397,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674410</t>
+          <t>2021-10-05 14:19:48.975385</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9427,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674413</t>
+          <t>2021-10-05 14:19:48.975388</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9457,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674415</t>
+          <t>2021-10-05 14:19:48.975390</t>
         </is>
       </c>
     </row>
@@ -9486,7 +9487,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674418</t>
+          <t>2021-10-05 14:19:48.975393</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9517,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674420</t>
+          <t>2021-10-05 14:19:48.975396</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9547,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674423</t>
+          <t>2021-10-05 14:19:48.975398</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9577,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674425</t>
+          <t>2021-10-05 14:19:48.975401</t>
         </is>
       </c>
     </row>
@@ -9606,7 +9607,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674428</t>
+          <t>2021-10-05 14:19:48.975403</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9637,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674430</t>
+          <t>2021-10-05 14:19:48.975406</t>
         </is>
       </c>
     </row>
@@ -9666,7 +9667,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674432</t>
+          <t>2021-10-05 14:19:48.975409</t>
         </is>
       </c>
     </row>
@@ -9696,7 +9697,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674435</t>
+          <t>2021-10-05 14:19:48.975411</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9727,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674439</t>
+          <t>2021-10-05 14:19:48.975415</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9757,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674442</t>
+          <t>2021-10-05 14:19:48.975418</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9787,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674444</t>
+          <t>2021-10-05 14:19:48.975421</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9817,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674447</t>
+          <t>2021-10-05 14:19:48.975423</t>
         </is>
       </c>
     </row>
@@ -9846,7 +9847,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674449</t>
+          <t>2021-10-05 14:19:48.975426</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9877,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674452</t>
+          <t>2021-10-05 14:19:48.975429</t>
         </is>
       </c>
     </row>
@@ -9906,7 +9907,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674454</t>
+          <t>2021-10-05 14:19:48.975431</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9937,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674457</t>
+          <t>2021-10-05 14:19:48.975434</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9967,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674459</t>
+          <t>2021-10-05 14:19:48.975437</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9997,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674462</t>
+          <t>2021-10-05 14:19:48.975439</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10027,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674464</t>
+          <t>2021-10-05 14:19:48.975442</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10057,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674467</t>
+          <t>2021-10-05 14:19:48.975445</t>
         </is>
       </c>
     </row>
@@ -10086,7 +10087,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674469</t>
+          <t>2021-10-05 14:19:48.975447</t>
         </is>
       </c>
     </row>
@@ -10116,7 +10117,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674471</t>
+          <t>2021-10-05 14:19:48.975450</t>
         </is>
       </c>
     </row>
@@ -10146,7 +10147,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674474</t>
+          <t>2021-10-05 14:19:48.975453</t>
         </is>
       </c>
     </row>
@@ -10176,7 +10177,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674476</t>
+          <t>2021-10-05 14:19:48.975456</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10207,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674479</t>
+          <t>2021-10-05 14:19:48.975458</t>
         </is>
       </c>
     </row>
@@ -10236,7 +10237,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674481</t>
+          <t>2021-10-05 14:19:48.975461</t>
         </is>
       </c>
     </row>
@@ -10266,7 +10267,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674484</t>
+          <t>2021-10-05 14:19:48.975464</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10297,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674486</t>
+          <t>2021-10-05 14:19:48.975466</t>
         </is>
       </c>
     </row>
@@ -10326,7 +10327,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674489</t>
+          <t>2021-10-05 14:19:48.975469</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10357,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674491</t>
+          <t>2021-10-05 14:19:48.975471</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10387,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674494</t>
+          <t>2021-10-05 14:19:48.975474</t>
         </is>
       </c>
     </row>
@@ -10416,7 +10417,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674496</t>
+          <t>2021-10-05 14:19:48.975477</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10447,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674498</t>
+          <t>2021-10-05 14:19:48.975479</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10477,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674501</t>
+          <t>2021-10-05 14:19:48.975482</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10507,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674503</t>
+          <t>2021-10-05 14:19:48.975484</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10537,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674506</t>
+          <t>2021-10-05 14:19:48.975487</t>
         </is>
       </c>
     </row>
@@ -10566,7 +10567,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674508</t>
+          <t>2021-10-05 14:19:48.975489</t>
         </is>
       </c>
     </row>
@@ -10596,7 +10597,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674510</t>
+          <t>2021-10-05 14:19:48.975492</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10627,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674513</t>
+          <t>2021-10-05 14:19:48.975495</t>
         </is>
       </c>
     </row>
@@ -10656,7 +10657,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674515</t>
+          <t>2021-10-05 14:19:48.975497</t>
         </is>
       </c>
     </row>
@@ -10686,7 +10687,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674518</t>
+          <t>2021-10-05 14:19:48.975500</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10717,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674520</t>
+          <t>2021-10-05 14:19:48.975502</t>
         </is>
       </c>
     </row>
@@ -10746,7 +10747,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674523</t>
+          <t>2021-10-05 14:19:48.975505</t>
         </is>
       </c>
     </row>
@@ -10776,7 +10777,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674525</t>
+          <t>2021-10-05 14:19:48.975507</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10807,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674528</t>
+          <t>2021-10-05 14:19:48.975510</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10837,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674530</t>
+          <t>2021-10-05 14:19:48.975513</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10867,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674533</t>
+          <t>2021-10-05 14:19:48.975515</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10897,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674535</t>
+          <t>2021-10-05 14:19:48.975518</t>
         </is>
       </c>
     </row>
@@ -10926,7 +10927,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674537</t>
+          <t>2021-10-05 14:19:48.975521</t>
         </is>
       </c>
     </row>
@@ -10956,7 +10957,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674540</t>
+          <t>2021-10-05 14:19:48.975523</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10987,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674542</t>
+          <t>2021-10-05 14:19:48.975526</t>
         </is>
       </c>
     </row>
@@ -11016,7 +11017,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674545</t>
+          <t>2021-10-05 14:19:48.975529</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11047,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674548</t>
+          <t>2021-10-05 14:19:48.975532</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11077,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674551</t>
+          <t>2021-10-05 14:19:48.975535</t>
         </is>
       </c>
     </row>
@@ -11106,7 +11107,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674553</t>
+          <t>2021-10-05 14:19:48.975538</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11137,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674556</t>
+          <t>2021-10-05 14:19:48.975541</t>
         </is>
       </c>
     </row>
@@ -11166,7 +11167,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674558</t>
+          <t>2021-10-05 14:19:48.975544</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11197,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674561</t>
+          <t>2021-10-05 14:19:48.975546</t>
         </is>
       </c>
     </row>
@@ -11226,7 +11227,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674563</t>
+          <t>2021-10-05 14:19:48.975549</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11257,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674566</t>
+          <t>2021-10-05 14:19:48.975552</t>
         </is>
       </c>
     </row>
@@ -11286,7 +11287,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674568</t>
+          <t>2021-10-05 14:19:48.975555</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11317,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674571</t>
+          <t>2021-10-05 14:19:48.975557</t>
         </is>
       </c>
     </row>
@@ -11346,7 +11347,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674573</t>
+          <t>2021-10-05 14:19:48.975560</t>
         </is>
       </c>
     </row>
@@ -11376,7 +11377,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674576</t>
+          <t>2021-10-05 14:19:48.975562</t>
         </is>
       </c>
     </row>
@@ -11406,7 +11407,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674578</t>
+          <t>2021-10-05 14:19:48.975565</t>
         </is>
       </c>
     </row>
@@ -11436,7 +11437,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674580</t>
+          <t>2021-10-05 14:19:48.975568</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11467,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674583</t>
+          <t>2021-10-05 14:19:48.975571</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11497,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674585</t>
+          <t>2021-10-05 14:19:48.975573</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11527,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674588</t>
+          <t>2021-10-05 14:19:48.975576</t>
         </is>
       </c>
     </row>
@@ -11556,7 +11557,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674590</t>
+          <t>2021-10-05 14:19:48.975578</t>
         </is>
       </c>
     </row>
@@ -11586,7 +11587,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674593</t>
+          <t>2021-10-05 14:19:48.975581</t>
         </is>
       </c>
     </row>
@@ -11616,7 +11617,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674595</t>
+          <t>2021-10-05 14:19:48.975583</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11647,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674598</t>
+          <t>2021-10-05 14:19:48.975586</t>
         </is>
       </c>
     </row>
@@ -11676,7 +11677,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674600</t>
+          <t>2021-10-05 14:19:48.975589</t>
         </is>
       </c>
     </row>
@@ -11706,7 +11707,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674603</t>
+          <t>2021-10-05 14:19:48.975592</t>
         </is>
       </c>
     </row>
@@ -11736,7 +11737,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674605</t>
+          <t>2021-10-05 14:19:48.975594</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11767,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674608</t>
+          <t>2021-10-05 14:19:48.975597</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11797,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674610</t>
+          <t>2021-10-05 14:19:48.975599</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11827,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674613</t>
+          <t>2021-10-05 14:19:48.975602</t>
         </is>
       </c>
     </row>
@@ -11856,7 +11857,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674615</t>
+          <t>2021-10-05 14:19:48.975604</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11887,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674618</t>
+          <t>2021-10-05 14:19:48.975607</t>
         </is>
       </c>
     </row>
@@ -11916,7 +11917,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674620</t>
+          <t>2021-10-05 14:19:48.975609</t>
         </is>
       </c>
     </row>
@@ -11946,7 +11947,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674622</t>
+          <t>2021-10-05 14:19:48.975612</t>
         </is>
       </c>
     </row>
@@ -11976,7 +11977,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674625</t>
+          <t>2021-10-05 14:19:48.975615</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12007,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674627</t>
+          <t>2021-10-05 14:19:48.975617</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12037,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674630</t>
+          <t>2021-10-05 14:19:48.975620</t>
         </is>
       </c>
     </row>
@@ -12066,7 +12067,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674632</t>
+          <t>2021-10-05 14:19:48.975623</t>
         </is>
       </c>
     </row>
@@ -12096,7 +12097,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674635</t>
+          <t>2021-10-05 14:19:48.975625</t>
         </is>
       </c>
     </row>
@@ -12126,7 +12127,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674637</t>
+          <t>2021-10-05 14:19:48.975628</t>
         </is>
       </c>
     </row>
@@ -12156,7 +12157,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674640</t>
+          <t>2021-10-05 14:19:48.975630</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12187,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674642</t>
+          <t>2021-10-05 14:19:48.975633</t>
         </is>
       </c>
     </row>
@@ -12216,7 +12217,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674644</t>
+          <t>2021-10-05 14:19:48.975636</t>
         </is>
       </c>
     </row>
@@ -12246,7 +12247,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674647</t>
+          <t>2021-10-05 14:19:48.975638</t>
         </is>
       </c>
     </row>
@@ -12276,7 +12277,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674649</t>
+          <t>2021-10-05 14:19:48.975641</t>
         </is>
       </c>
     </row>
@@ -12306,7 +12307,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674652</t>
+          <t>2021-10-05 14:19:48.975643</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12337,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674654</t>
+          <t>2021-10-05 14:19:48.975646</t>
         </is>
       </c>
     </row>
@@ -12366,7 +12367,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674657</t>
+          <t>2021-10-05 14:19:48.975649</t>
         </is>
       </c>
     </row>
@@ -12396,7 +12397,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674659</t>
+          <t>2021-10-05 14:19:48.975651</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12427,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674662</t>
+          <t>2021-10-05 14:19:48.975654</t>
         </is>
       </c>
     </row>
@@ -12456,7 +12457,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674664</t>
+          <t>2021-10-05 14:19:48.975656</t>
         </is>
       </c>
     </row>
@@ -12486,7 +12487,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674668</t>
+          <t>2021-10-05 14:19:48.975660</t>
         </is>
       </c>
     </row>
@@ -12516,7 +12517,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674671</t>
+          <t>2021-10-05 14:19:48.975663</t>
         </is>
       </c>
     </row>
@@ -12546,7 +12547,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674673</t>
+          <t>2021-10-05 14:19:48.975666</t>
         </is>
       </c>
     </row>
@@ -12576,7 +12577,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674676</t>
+          <t>2021-10-05 14:19:48.975668</t>
         </is>
       </c>
     </row>
@@ -12606,7 +12607,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674678</t>
+          <t>2021-10-05 14:19:48.975671</t>
         </is>
       </c>
     </row>
@@ -12636,7 +12637,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674681</t>
+          <t>2021-10-05 14:19:48.975674</t>
         </is>
       </c>
     </row>
@@ -12666,7 +12667,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674683</t>
+          <t>2021-10-05 14:19:48.975676</t>
         </is>
       </c>
     </row>
@@ -12696,7 +12697,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674685</t>
+          <t>2021-10-05 14:19:48.975679</t>
         </is>
       </c>
     </row>
@@ -12726,7 +12727,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674688</t>
+          <t>2021-10-05 14:19:48.975682</t>
         </is>
       </c>
     </row>
@@ -12756,7 +12757,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674690</t>
+          <t>2021-10-05 14:19:48.975684</t>
         </is>
       </c>
     </row>
@@ -12786,7 +12787,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674693</t>
+          <t>2021-10-05 14:19:48.975687</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12817,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674695</t>
+          <t>2021-10-05 14:19:48.975689</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12847,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674698</t>
+          <t>2021-10-05 14:19:48.975692</t>
         </is>
       </c>
     </row>
@@ -12876,7 +12877,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674700</t>
+          <t>2021-10-05 14:19:48.975695</t>
         </is>
       </c>
     </row>
@@ -12906,7 +12907,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674703</t>
+          <t>2021-10-05 14:19:48.975698</t>
         </is>
       </c>
     </row>
@@ -12936,7 +12937,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674705</t>
+          <t>2021-10-05 14:19:48.975700</t>
         </is>
       </c>
     </row>
@@ -12966,7 +12967,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674710</t>
+          <t>2021-10-05 14:19:48.975703</t>
         </is>
       </c>
     </row>
@@ -12996,7 +12997,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674713</t>
+          <t>2021-10-05 14:19:48.975706</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13027,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674715</t>
+          <t>2021-10-05 14:19:48.975708</t>
         </is>
       </c>
     </row>
@@ -13056,7 +13057,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674718</t>
+          <t>2021-10-05 14:19:48.975711</t>
         </is>
       </c>
     </row>
@@ -13086,7 +13087,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674720</t>
+          <t>2021-10-05 14:19:48.975713</t>
         </is>
       </c>
     </row>
@@ -13116,7 +13117,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674723</t>
+          <t>2021-10-05 14:19:48.975716</t>
         </is>
       </c>
     </row>
@@ -13146,7 +13147,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674726</t>
+          <t>2021-10-05 14:19:48.975719</t>
         </is>
       </c>
     </row>
@@ -13176,7 +13177,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674728</t>
+          <t>2021-10-05 14:19:48.975721</t>
         </is>
       </c>
     </row>
@@ -13206,7 +13207,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674731</t>
+          <t>2021-10-05 14:19:48.975724</t>
         </is>
       </c>
     </row>
@@ -13236,7 +13237,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674733</t>
+          <t>2021-10-05 14:19:48.975727</t>
         </is>
       </c>
     </row>
@@ -13266,7 +13267,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674736</t>
+          <t>2021-10-05 14:19:48.975729</t>
         </is>
       </c>
     </row>
@@ -13296,7 +13297,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674738</t>
+          <t>2021-10-05 14:19:48.975732</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13327,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674740</t>
+          <t>2021-10-05 14:19:48.975735</t>
         </is>
       </c>
     </row>
@@ -13356,7 +13357,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674743</t>
+          <t>2021-10-05 14:19:48.975737</t>
         </is>
       </c>
     </row>
@@ -13386,7 +13387,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674745</t>
+          <t>2021-10-05 14:19:48.975740</t>
         </is>
       </c>
     </row>
@@ -13416,7 +13417,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674748</t>
+          <t>2021-10-05 14:19:48.975742</t>
         </is>
       </c>
     </row>
@@ -13446,7 +13447,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674750</t>
+          <t>2021-10-05 14:19:48.975745</t>
         </is>
       </c>
     </row>
@@ -13476,7 +13477,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674753</t>
+          <t>2021-10-05 14:19:48.975747</t>
         </is>
       </c>
     </row>
@@ -13506,7 +13507,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674755</t>
+          <t>2021-10-05 14:19:48.975750</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13537,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674757</t>
+          <t>2021-10-05 14:19:48.975752</t>
         </is>
       </c>
     </row>
@@ -13566,7 +13567,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674760</t>
+          <t>2021-10-05 14:19:48.975755</t>
         </is>
       </c>
     </row>
@@ -13596,7 +13597,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674762</t>
+          <t>2021-10-05 14:19:48.975758</t>
         </is>
       </c>
     </row>
@@ -13626,7 +13627,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674765</t>
+          <t>2021-10-05 14:19:48.975760</t>
         </is>
       </c>
     </row>
@@ -13656,7 +13657,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674767</t>
+          <t>2021-10-05 14:19:48.975763</t>
         </is>
       </c>
     </row>
@@ -13686,7 +13687,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674770</t>
+          <t>2021-10-05 14:19:48.975766</t>
         </is>
       </c>
     </row>
@@ -13716,7 +13717,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674772</t>
+          <t>2021-10-05 14:19:48.975768</t>
         </is>
       </c>
     </row>
@@ -13746,7 +13747,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674775</t>
+          <t>2021-10-05 14:19:48.975771</t>
         </is>
       </c>
     </row>
@@ -13776,7 +13777,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674777</t>
+          <t>2021-10-05 14:19:48.975773</t>
         </is>
       </c>
     </row>
@@ -13806,7 +13807,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674780</t>
+          <t>2021-10-05 14:19:48.975776</t>
         </is>
       </c>
     </row>
@@ -13836,7 +13837,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674782</t>
+          <t>2021-10-05 14:19:48.975779</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13867,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674784</t>
+          <t>2021-10-05 14:19:48.975781</t>
         </is>
       </c>
     </row>
@@ -13896,7 +13897,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674787</t>
+          <t>2021-10-05 14:19:48.975784</t>
         </is>
       </c>
     </row>
@@ -13926,7 +13927,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674789</t>
+          <t>2021-10-05 14:19:48.975786</t>
         </is>
       </c>
     </row>
@@ -13956,7 +13957,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674792</t>
+          <t>2021-10-05 14:19:48.975789</t>
         </is>
       </c>
     </row>
@@ -13986,7 +13987,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674794</t>
+          <t>2021-10-05 14:19:48.975792</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14017,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674796</t>
+          <t>2021-10-05 14:19:48.975794</t>
         </is>
       </c>
     </row>
@@ -14046,7 +14047,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674799</t>
+          <t>2021-10-05 14:19:48.975797</t>
         </is>
       </c>
     </row>
@@ -14076,7 +14077,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674801</t>
+          <t>2021-10-05 14:19:48.975799</t>
         </is>
       </c>
     </row>
@@ -14106,7 +14107,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674804</t>
+          <t>2021-10-05 14:19:48.975802</t>
         </is>
       </c>
     </row>
@@ -14136,7 +14137,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674806</t>
+          <t>2021-10-05 14:19:48.975805</t>
         </is>
       </c>
     </row>
@@ -14166,7 +14167,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674810</t>
+          <t>2021-10-05 14:19:48.975808</t>
         </is>
       </c>
     </row>
@@ -14196,7 +14197,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674813</t>
+          <t>2021-10-05 14:19:48.975811</t>
         </is>
       </c>
     </row>
@@ -14226,7 +14227,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674816</t>
+          <t>2021-10-05 14:19:48.975814</t>
         </is>
       </c>
     </row>
@@ -14256,7 +14257,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674818</t>
+          <t>2021-10-05 14:19:48.975817</t>
         </is>
       </c>
     </row>
@@ -14286,7 +14287,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674821</t>
+          <t>2021-10-05 14:19:48.975820</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14317,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674823</t>
+          <t>2021-10-05 14:19:48.975822</t>
         </is>
       </c>
     </row>
@@ -14346,7 +14347,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674826</t>
+          <t>2021-10-05 14:19:48.975825</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14377,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674828</t>
+          <t>2021-10-05 14:19:48.975828</t>
         </is>
       </c>
     </row>
@@ -14406,7 +14407,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674831</t>
+          <t>2021-10-05 14:19:48.975830</t>
         </is>
       </c>
     </row>
@@ -14436,7 +14437,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674833</t>
+          <t>2021-10-05 14:19:48.975833</t>
         </is>
       </c>
     </row>
@@ -14466,7 +14467,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674836</t>
+          <t>2021-10-05 14:19:48.975835</t>
         </is>
       </c>
     </row>
@@ -14496,7 +14497,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674838</t>
+          <t>2021-10-05 14:19:48.975838</t>
         </is>
       </c>
     </row>
@@ -14526,7 +14527,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674841</t>
+          <t>2021-10-05 14:19:48.975840</t>
         </is>
       </c>
     </row>
@@ -14556,7 +14557,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674843</t>
+          <t>2021-10-05 14:19:48.975843</t>
         </is>
       </c>
     </row>
@@ -14586,7 +14587,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674846</t>
+          <t>2021-10-05 14:19:48.975845</t>
         </is>
       </c>
     </row>
@@ -14616,7 +14617,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674848</t>
+          <t>2021-10-05 14:19:48.975848</t>
         </is>
       </c>
     </row>
@@ -14646,7 +14647,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674851</t>
+          <t>2021-10-05 14:19:48.975851</t>
         </is>
       </c>
     </row>
@@ -14676,7 +14677,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674853</t>
+          <t>2021-10-05 14:19:48.975853</t>
         </is>
       </c>
     </row>
@@ -14706,7 +14707,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674856</t>
+          <t>2021-10-05 14:19:48.975856</t>
         </is>
       </c>
     </row>
@@ -14736,7 +14737,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674858</t>
+          <t>2021-10-05 14:19:48.975859</t>
         </is>
       </c>
     </row>
@@ -14766,7 +14767,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674861</t>
+          <t>2021-10-05 14:19:48.975862</t>
         </is>
       </c>
     </row>
@@ -14796,7 +14797,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674863</t>
+          <t>2021-10-05 14:19:48.975864</t>
         </is>
       </c>
     </row>
@@ -14826,7 +14827,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674866</t>
+          <t>2021-10-05 14:19:48.975867</t>
         </is>
       </c>
     </row>
@@ -14856,7 +14857,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674868</t>
+          <t>2021-10-05 14:19:48.975870</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14887,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674870</t>
+          <t>2021-10-05 14:19:48.975872</t>
         </is>
       </c>
     </row>
@@ -14916,7 +14917,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674873</t>
+          <t>2021-10-05 14:19:48.975875</t>
         </is>
       </c>
     </row>
@@ -14946,7 +14947,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674875</t>
+          <t>2021-10-05 14:19:48.975877</t>
         </is>
       </c>
     </row>
@@ -14976,7 +14977,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674878</t>
+          <t>2021-10-05 14:19:48.975880</t>
         </is>
       </c>
     </row>
@@ -15006,7 +15007,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674880</t>
+          <t>2021-10-05 14:19:48.975883</t>
         </is>
       </c>
     </row>
@@ -15036,7 +15037,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674883</t>
+          <t>2021-10-05 14:19:48.975886</t>
         </is>
       </c>
     </row>
@@ -15066,7 +15067,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674885</t>
+          <t>2021-10-05 14:19:48.975888</t>
         </is>
       </c>
     </row>
@@ -15096,7 +15097,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674888</t>
+          <t>2021-10-05 14:19:48.975891</t>
         </is>
       </c>
     </row>
@@ -15126,7 +15127,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674890</t>
+          <t>2021-10-05 14:19:48.975894</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15157,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674892</t>
+          <t>2021-10-05 14:19:48.975896</t>
         </is>
       </c>
     </row>
@@ -15186,7 +15187,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674895</t>
+          <t>2021-10-05 14:19:48.975899</t>
         </is>
       </c>
     </row>
@@ -15216,7 +15217,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674897</t>
+          <t>2021-10-05 14:19:48.975902</t>
         </is>
       </c>
     </row>
@@ -15246,7 +15247,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674900</t>
+          <t>2021-10-05 14:19:48.975904</t>
         </is>
       </c>
     </row>
@@ -15276,7 +15277,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674902</t>
+          <t>2021-10-05 14:19:48.975907</t>
         </is>
       </c>
     </row>
@@ -15306,7 +15307,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674905</t>
+          <t>2021-10-05 14:19:48.975909</t>
         </is>
       </c>
     </row>
@@ -15336,7 +15337,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674907</t>
+          <t>2021-10-05 14:19:48.975912</t>
         </is>
       </c>
     </row>
@@ -15366,7 +15367,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674910</t>
+          <t>2021-10-05 14:19:48.975914</t>
         </is>
       </c>
     </row>
@@ -15396,7 +15397,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674912</t>
+          <t>2021-10-05 14:19:48.975917</t>
         </is>
       </c>
     </row>
@@ -15426,7 +15427,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674915</t>
+          <t>2021-10-05 14:19:48.975919</t>
         </is>
       </c>
     </row>
@@ -15456,7 +15457,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674918</t>
+          <t>2021-10-05 14:19:48.975922</t>
         </is>
       </c>
     </row>
@@ -15486,7 +15487,7 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674920</t>
+          <t>2021-10-05 14:19:48.975925</t>
         </is>
       </c>
     </row>
@@ -15516,7 +15517,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674923</t>
+          <t>2021-10-05 14:19:48.975927</t>
         </is>
       </c>
     </row>
@@ -15546,7 +15547,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674925</t>
+          <t>2021-10-05 14:19:48.975929</t>
         </is>
       </c>
     </row>
@@ -15576,7 +15577,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674928</t>
+          <t>2021-10-05 14:19:48.975932</t>
         </is>
       </c>
     </row>
@@ -15606,7 +15607,7 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674931</t>
+          <t>2021-10-05 14:19:48.975935</t>
         </is>
       </c>
     </row>
@@ -15636,7 +15637,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674933</t>
+          <t>2021-10-05 14:19:48.975937</t>
         </is>
       </c>
     </row>
@@ -15666,7 +15667,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674936</t>
+          <t>2021-10-05 14:19:48.975940</t>
         </is>
       </c>
     </row>
@@ -15696,7 +15697,7 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674938</t>
+          <t>2021-10-05 14:19:48.975942</t>
         </is>
       </c>
     </row>
@@ -15726,7 +15727,7 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674941</t>
+          <t>2021-10-05 14:19:48.975945</t>
         </is>
       </c>
     </row>
@@ -15756,7 +15757,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674943</t>
+          <t>2021-10-05 14:19:48.975947</t>
         </is>
       </c>
     </row>
@@ -15786,7 +15787,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674946</t>
+          <t>2021-10-05 14:19:48.975950</t>
         </is>
       </c>
     </row>
@@ -15816,7 +15817,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674948</t>
+          <t>2021-10-05 14:19:48.975953</t>
         </is>
       </c>
     </row>
@@ -15846,7 +15847,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674950</t>
+          <t>2021-10-05 14:19:48.975955</t>
         </is>
       </c>
     </row>
@@ -15876,7 +15877,7 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674953</t>
+          <t>2021-10-05 14:19:48.975958</t>
         </is>
       </c>
     </row>
@@ -15906,7 +15907,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674955</t>
+          <t>2021-10-05 14:19:48.975960</t>
         </is>
       </c>
     </row>
@@ -15936,7 +15937,7 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674958</t>
+          <t>2021-10-05 14:19:48.975963</t>
         </is>
       </c>
     </row>
@@ -15966,7 +15967,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674961</t>
+          <t>2021-10-05 14:19:48.975965</t>
         </is>
       </c>
     </row>
@@ -15996,7 +15997,7 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674963</t>
+          <t>2021-10-05 14:19:48.975968</t>
         </is>
       </c>
     </row>
@@ -16026,7 +16027,7 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674966</t>
+          <t>2021-10-05 14:19:48.975971</t>
         </is>
       </c>
     </row>
@@ -16056,7 +16057,7 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674968</t>
+          <t>2021-10-05 14:19:48.975973</t>
         </is>
       </c>
     </row>
@@ -16086,7 +16087,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674972</t>
+          <t>2021-10-05 14:19:48.975977</t>
         </is>
       </c>
     </row>
@@ -16116,7 +16117,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674975</t>
+          <t>2021-10-05 14:19:48.975980</t>
         </is>
       </c>
     </row>
@@ -16146,7 +16147,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674977</t>
+          <t>2021-10-05 14:19:48.975983</t>
         </is>
       </c>
     </row>
@@ -16176,7 +16177,7 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674980</t>
+          <t>2021-10-05 14:19:48.975985</t>
         </is>
       </c>
     </row>
@@ -16206,7 +16207,7 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674982</t>
+          <t>2021-10-05 14:19:48.975988</t>
         </is>
       </c>
     </row>
@@ -16236,7 +16237,7 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674985</t>
+          <t>2021-10-05 14:19:48.975990</t>
         </is>
       </c>
     </row>
@@ -16266,7 +16267,7 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674987</t>
+          <t>2021-10-05 14:19:48.975993</t>
         </is>
       </c>
     </row>
@@ -16296,7 +16297,7 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674990</t>
+          <t>2021-10-05 14:19:48.975995</t>
         </is>
       </c>
     </row>
@@ -16326,7 +16327,7 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674992</t>
+          <t>2021-10-05 14:19:48.975998</t>
         </is>
       </c>
     </row>
@@ -16356,7 +16357,7 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674995</t>
+          <t>2021-10-05 14:19:48.976001</t>
         </is>
       </c>
     </row>
@@ -16386,7 +16387,7 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.674997</t>
+          <t>2021-10-05 14:19:48.976003</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16417,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675000</t>
+          <t>2021-10-05 14:19:48.976006</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16447,7 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675002</t>
+          <t>2021-10-05 14:19:48.976008</t>
         </is>
       </c>
     </row>
@@ -16476,7 +16477,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675005</t>
+          <t>2021-10-05 14:19:48.976011</t>
         </is>
       </c>
     </row>
@@ -16506,7 +16507,7 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675007</t>
+          <t>2021-10-05 14:19:48.976014</t>
         </is>
       </c>
     </row>
@@ -16536,7 +16537,7 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675010</t>
+          <t>2021-10-05 14:19:48.976016</t>
         </is>
       </c>
     </row>
@@ -16566,7 +16567,7 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675012</t>
+          <t>2021-10-05 14:19:48.976019</t>
         </is>
       </c>
     </row>
@@ -16596,7 +16597,7 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675015</t>
+          <t>2021-10-05 14:19:48.976021</t>
         </is>
       </c>
     </row>
@@ -16626,7 +16627,7 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675017</t>
+          <t>2021-10-05 14:19:48.976031</t>
         </is>
       </c>
     </row>
@@ -16656,7 +16657,7 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675020</t>
+          <t>2021-10-05 14:19:48.976034</t>
         </is>
       </c>
     </row>
@@ -16686,7 +16687,7 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675022</t>
+          <t>2021-10-05 14:19:48.976037</t>
         </is>
       </c>
     </row>
@@ -16716,7 +16717,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675025</t>
+          <t>2021-10-05 14:19:48.976039</t>
         </is>
       </c>
     </row>
@@ -16746,7 +16747,7 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675027</t>
+          <t>2021-10-05 14:19:48.976042</t>
         </is>
       </c>
     </row>
@@ -16776,7 +16777,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675030</t>
+          <t>2021-10-05 14:19:48.976044</t>
         </is>
       </c>
     </row>
@@ -16806,7 +16807,7 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675032</t>
+          <t>2021-10-05 14:19:48.976047</t>
         </is>
       </c>
     </row>
@@ -16836,7 +16837,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675035</t>
+          <t>2021-10-05 14:19:48.976049</t>
         </is>
       </c>
     </row>
@@ -16866,7 +16867,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675037</t>
+          <t>2021-10-05 14:19:48.976052</t>
         </is>
       </c>
     </row>
@@ -16896,7 +16897,7 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675040</t>
+          <t>2021-10-05 14:19:48.976055</t>
         </is>
       </c>
     </row>
@@ -16926,7 +16927,7 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675043</t>
+          <t>2021-10-05 14:19:48.976057</t>
         </is>
       </c>
     </row>
@@ -16956,7 +16957,7 @@
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675046</t>
+          <t>2021-10-05 14:19:48.976060</t>
         </is>
       </c>
     </row>
@@ -16986,7 +16987,7 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675048</t>
+          <t>2021-10-05 14:19:48.976062</t>
         </is>
       </c>
     </row>
@@ -17016,7 +17017,7 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675051</t>
+          <t>2021-10-05 14:19:48.976065</t>
         </is>
       </c>
     </row>
@@ -17046,7 +17047,7 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675054</t>
+          <t>2021-10-05 14:19:48.976067</t>
         </is>
       </c>
     </row>
@@ -17076,7 +17077,7 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675057</t>
+          <t>2021-10-05 14:19:48.976070</t>
         </is>
       </c>
     </row>
@@ -17106,7 +17107,7 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675059</t>
+          <t>2021-10-05 14:19:48.976072</t>
         </is>
       </c>
     </row>
@@ -17136,7 +17137,7 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675062</t>
+          <t>2021-10-05 14:19:48.976075</t>
         </is>
       </c>
     </row>
@@ -17166,7 +17167,7 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675064</t>
+          <t>2021-10-05 14:19:48.976078</t>
         </is>
       </c>
     </row>
@@ -17196,7 +17197,7 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675067</t>
+          <t>2021-10-05 14:19:48.976080</t>
         </is>
       </c>
     </row>
@@ -17226,7 +17227,7 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675069</t>
+          <t>2021-10-05 14:19:48.976083</t>
         </is>
       </c>
     </row>
@@ -17256,7 +17257,7 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675072</t>
+          <t>2021-10-05 14:19:48.976085</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17287,7 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675074</t>
+          <t>2021-10-05 14:19:48.976088</t>
         </is>
       </c>
     </row>
@@ -17316,7 +17317,7 @@
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675077</t>
+          <t>2021-10-05 14:19:48.976090</t>
         </is>
       </c>
     </row>
@@ -17346,7 +17347,7 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675079</t>
+          <t>2021-10-05 14:19:48.976093</t>
         </is>
       </c>
     </row>
@@ -17376,7 +17377,7 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675082</t>
+          <t>2021-10-05 14:19:48.976096</t>
         </is>
       </c>
     </row>
@@ -17406,7 +17407,7 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675085</t>
+          <t>2021-10-05 14:19:48.976098</t>
         </is>
       </c>
     </row>
@@ -17436,7 +17437,7 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675087</t>
+          <t>2021-10-05 14:19:48.976101</t>
         </is>
       </c>
     </row>
@@ -17466,7 +17467,7 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675090</t>
+          <t>2021-10-05 14:19:48.976103</t>
         </is>
       </c>
     </row>
@@ -17496,7 +17497,7 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675093</t>
+          <t>2021-10-05 14:19:48.976106</t>
         </is>
       </c>
     </row>
@@ -17526,7 +17527,7 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675095</t>
+          <t>2021-10-05 14:19:48.976109</t>
         </is>
       </c>
     </row>
@@ -17556,7 +17557,7 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675098</t>
+          <t>2021-10-05 14:19:48.976112</t>
         </is>
       </c>
     </row>
@@ -17586,7 +17587,7 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675101</t>
+          <t>2021-10-05 14:19:48.976114</t>
         </is>
       </c>
     </row>
@@ -17616,7 +17617,7 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675103</t>
+          <t>2021-10-05 14:19:48.976117</t>
         </is>
       </c>
     </row>
@@ -17646,7 +17647,7 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675106</t>
+          <t>2021-10-05 14:19:48.976120</t>
         </is>
       </c>
     </row>
@@ -17676,7 +17677,7 @@
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675108</t>
+          <t>2021-10-05 14:19:48.976122</t>
         </is>
       </c>
     </row>
@@ -17706,7 +17707,7 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675114</t>
+          <t>2021-10-05 14:19:48.976125</t>
         </is>
       </c>
     </row>
@@ -17736,7 +17737,7 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675117</t>
+          <t>2021-10-05 14:19:48.976127</t>
         </is>
       </c>
     </row>
@@ -17766,7 +17767,7 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675120</t>
+          <t>2021-10-05 14:19:48.976130</t>
         </is>
       </c>
     </row>
@@ -17796,7 +17797,7 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675122</t>
+          <t>2021-10-05 14:19:48.976133</t>
         </is>
       </c>
     </row>
@@ -17826,7 +17827,7 @@
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675125</t>
+          <t>2021-10-05 14:19:48.976136</t>
         </is>
       </c>
     </row>
@@ -17856,7 +17857,7 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675128</t>
+          <t>2021-10-05 14:19:48.976138</t>
         </is>
       </c>
     </row>
@@ -17886,7 +17887,7 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675130</t>
+          <t>2021-10-05 14:19:48.976141</t>
         </is>
       </c>
     </row>
@@ -17916,7 +17917,7 @@
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675133</t>
+          <t>2021-10-05 14:19:48.976143</t>
         </is>
       </c>
     </row>
@@ -17946,7 +17947,7 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675135</t>
+          <t>2021-10-05 14:19:48.976146</t>
         </is>
       </c>
     </row>
@@ -17976,7 +17977,7 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675138</t>
+          <t>2021-10-05 14:19:48.976149</t>
         </is>
       </c>
     </row>
@@ -18006,7 +18007,7 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675140</t>
+          <t>2021-10-05 14:19:48.976151</t>
         </is>
       </c>
     </row>
@@ -18036,7 +18037,7 @@
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675143</t>
+          <t>2021-10-05 14:19:48.976154</t>
         </is>
       </c>
     </row>
@@ -18066,7 +18067,7 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675145</t>
+          <t>2021-10-05 14:19:48.976157</t>
         </is>
       </c>
     </row>
@@ -18096,7 +18097,7 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675148</t>
+          <t>2021-10-05 14:19:48.976159</t>
         </is>
       </c>
     </row>
@@ -18126,7 +18127,7 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675150</t>
+          <t>2021-10-05 14:19:48.976162</t>
         </is>
       </c>
     </row>
@@ -18156,7 +18157,7 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675153</t>
+          <t>2021-10-05 14:19:48.976164</t>
         </is>
       </c>
     </row>
@@ -18186,7 +18187,7 @@
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675155</t>
+          <t>2021-10-05 14:19:48.976167</t>
         </is>
       </c>
     </row>
@@ -18216,7 +18217,7 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675158</t>
+          <t>2021-10-05 14:19:48.976170</t>
         </is>
       </c>
     </row>
@@ -18246,7 +18247,7 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675162</t>
+          <t>2021-10-05 14:19:48.976174</t>
         </is>
       </c>
     </row>
@@ -18276,7 +18277,7 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675165</t>
+          <t>2021-10-05 14:19:48.976176</t>
         </is>
       </c>
     </row>
@@ -18306,7 +18307,7 @@
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675168</t>
+          <t>2021-10-05 14:19:48.976179</t>
         </is>
       </c>
     </row>
@@ -18336,7 +18337,7 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675170</t>
+          <t>2021-10-05 14:19:48.976182</t>
         </is>
       </c>
     </row>
@@ -18366,7 +18367,7 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675173</t>
+          <t>2021-10-05 14:19:48.976185</t>
         </is>
       </c>
     </row>
@@ -18396,7 +18397,7 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675175</t>
+          <t>2021-10-05 14:19:48.976187</t>
         </is>
       </c>
     </row>
@@ -18426,7 +18427,7 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675178</t>
+          <t>2021-10-05 14:19:48.976190</t>
         </is>
       </c>
     </row>
@@ -18456,7 +18457,7 @@
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675180</t>
+          <t>2021-10-05 14:19:48.976193</t>
         </is>
       </c>
     </row>
@@ -18486,7 +18487,7 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675183</t>
+          <t>2021-10-05 14:19:48.976195</t>
         </is>
       </c>
     </row>
@@ -18516,7 +18517,7 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675185</t>
+          <t>2021-10-05 14:19:48.976198</t>
         </is>
       </c>
     </row>
@@ -18546,7 +18547,7 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675188</t>
+          <t>2021-10-05 14:19:48.976201</t>
         </is>
       </c>
     </row>
@@ -18576,7 +18577,7 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675190</t>
+          <t>2021-10-05 14:19:48.976203</t>
         </is>
       </c>
     </row>
@@ -18606,7 +18607,7 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675193</t>
+          <t>2021-10-05 14:19:48.976206</t>
         </is>
       </c>
     </row>
@@ -18636,7 +18637,7 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675195</t>
+          <t>2021-10-05 14:19:48.976209</t>
         </is>
       </c>
     </row>
@@ -18666,7 +18667,7 @@
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675198</t>
+          <t>2021-10-05 14:19:48.976211</t>
         </is>
       </c>
     </row>
@@ -18696,7 +18697,7 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675200</t>
+          <t>2021-10-05 14:19:48.976214</t>
         </is>
       </c>
     </row>
@@ -18726,7 +18727,7 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675202</t>
+          <t>2021-10-05 14:19:48.976216</t>
         </is>
       </c>
     </row>
@@ -18756,7 +18757,7 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675205</t>
+          <t>2021-10-05 14:19:48.976219</t>
         </is>
       </c>
     </row>
@@ -18786,7 +18787,7 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675207</t>
+          <t>2021-10-05 14:19:48.976221</t>
         </is>
       </c>
     </row>
@@ -18816,7 +18817,7 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675210</t>
+          <t>2021-10-05 14:19:48.976224</t>
         </is>
       </c>
     </row>
@@ -18846,7 +18847,7 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675212</t>
+          <t>2021-10-05 14:19:48.976226</t>
         </is>
       </c>
     </row>
@@ -18876,7 +18877,7 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675215</t>
+          <t>2021-10-05 14:19:48.976229</t>
         </is>
       </c>
     </row>
@@ -18906,7 +18907,7 @@
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675218</t>
+          <t>2021-10-05 14:19:48.976232</t>
         </is>
       </c>
     </row>
@@ -18936,7 +18937,7 @@
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675220</t>
+          <t>2021-10-05 14:19:48.976234</t>
         </is>
       </c>
     </row>
@@ -18966,7 +18967,7 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675223</t>
+          <t>2021-10-05 14:19:48.976237</t>
         </is>
       </c>
     </row>
@@ -18996,7 +18997,7 @@
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675225</t>
+          <t>2021-10-05 14:19:48.976240</t>
         </is>
       </c>
     </row>
@@ -19026,7 +19027,7 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675228</t>
+          <t>2021-10-05 14:19:48.976243</t>
         </is>
       </c>
     </row>
@@ -19056,7 +19057,7 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675230</t>
+          <t>2021-10-05 14:19:48.976245</t>
         </is>
       </c>
     </row>
@@ -19086,7 +19087,7 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675233</t>
+          <t>2021-10-05 14:19:48.976248</t>
         </is>
       </c>
     </row>
@@ -19116,7 +19117,7 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675235</t>
+          <t>2021-10-05 14:19:48.976251</t>
         </is>
       </c>
     </row>
@@ -19146,7 +19147,7 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675238</t>
+          <t>2021-10-05 14:19:48.976253</t>
         </is>
       </c>
     </row>
@@ -19176,7 +19177,7 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675240</t>
+          <t>2021-10-05 14:19:48.976256</t>
         </is>
       </c>
     </row>
@@ -19206,7 +19207,7 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675243</t>
+          <t>2021-10-05 14:19:48.976258</t>
         </is>
       </c>
     </row>
@@ -19236,7 +19237,7 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675245</t>
+          <t>2021-10-05 14:19:48.976261</t>
         </is>
       </c>
     </row>
@@ -19266,7 +19267,7 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675248</t>
+          <t>2021-10-05 14:19:48.976263</t>
         </is>
       </c>
     </row>
@@ -19296,7 +19297,7 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675250</t>
+          <t>2021-10-05 14:19:48.976266</t>
         </is>
       </c>
     </row>
@@ -19326,7 +19327,7 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675253</t>
+          <t>2021-10-05 14:19:48.976268</t>
         </is>
       </c>
     </row>
@@ -19356,7 +19357,7 @@
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675255</t>
+          <t>2021-10-05 14:19:48.976271</t>
         </is>
       </c>
     </row>
@@ -19386,7 +19387,7 @@
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675258</t>
+          <t>2021-10-05 14:19:48.976274</t>
         </is>
       </c>
     </row>
@@ -19416,7 +19417,7 @@
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675261</t>
+          <t>2021-10-05 14:19:48.976276</t>
         </is>
       </c>
     </row>
@@ -19446,7 +19447,7 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675263</t>
+          <t>2021-10-05 14:19:48.976279</t>
         </is>
       </c>
     </row>
@@ -19476,7 +19477,7 @@
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675266</t>
+          <t>2021-10-05 14:19:48.976281</t>
         </is>
       </c>
     </row>
@@ -19506,7 +19507,7 @@
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675268</t>
+          <t>2021-10-05 14:19:48.976284</t>
         </is>
       </c>
     </row>
@@ -19536,7 +19537,7 @@
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675271</t>
+          <t>2021-10-05 14:19:48.976287</t>
         </is>
       </c>
     </row>
@@ -19566,7 +19567,7 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675273</t>
+          <t>2021-10-05 14:19:48.976289</t>
         </is>
       </c>
     </row>
@@ -19596,7 +19597,7 @@
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675276</t>
+          <t>2021-10-05 14:19:48.976292</t>
         </is>
       </c>
     </row>
@@ -19626,7 +19627,7 @@
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675278</t>
+          <t>2021-10-05 14:19:48.976295</t>
         </is>
       </c>
     </row>
@@ -19656,7 +19657,7 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675281</t>
+          <t>2021-10-05 14:19:48.976297</t>
         </is>
       </c>
     </row>
@@ -19686,7 +19687,7 @@
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675283</t>
+          <t>2021-10-05 14:19:48.976300</t>
         </is>
       </c>
     </row>
@@ -19716,7 +19717,7 @@
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675286</t>
+          <t>2021-10-05 14:19:48.976302</t>
         </is>
       </c>
     </row>
@@ -19746,7 +19747,7 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675288</t>
+          <t>2021-10-05 14:19:48.976305</t>
         </is>
       </c>
     </row>
@@ -19776,7 +19777,7 @@
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675290</t>
+          <t>2021-10-05 14:19:48.976307</t>
         </is>
       </c>
     </row>
@@ -19806,7 +19807,7 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675293</t>
+          <t>2021-10-05 14:19:48.976310</t>
         </is>
       </c>
     </row>
@@ -19836,7 +19837,7 @@
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675295</t>
+          <t>2021-10-05 14:19:48.976312</t>
         </is>
       </c>
     </row>
@@ -19866,7 +19867,7 @@
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675298</t>
+          <t>2021-10-05 14:19:48.976315</t>
         </is>
       </c>
     </row>
@@ -19896,7 +19897,7 @@
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675301</t>
+          <t>2021-10-05 14:19:48.976318</t>
         </is>
       </c>
     </row>
@@ -19926,7 +19927,7 @@
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675303</t>
+          <t>2021-10-05 14:19:48.976320</t>
         </is>
       </c>
     </row>
@@ -19956,7 +19957,7 @@
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675306</t>
+          <t>2021-10-05 14:19:48.976323</t>
         </is>
       </c>
     </row>
@@ -19986,7 +19987,7 @@
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675308</t>
+          <t>2021-10-05 14:19:48.976325</t>
         </is>
       </c>
     </row>
@@ -20016,7 +20017,7 @@
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675311</t>
+          <t>2021-10-05 14:19:48.976328</t>
         </is>
       </c>
     </row>
@@ -20046,7 +20047,7 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675313</t>
+          <t>2021-10-05 14:19:48.976331</t>
         </is>
       </c>
     </row>
@@ -20076,7 +20077,7 @@
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675316</t>
+          <t>2021-10-05 14:19:48.976333</t>
         </is>
       </c>
     </row>
@@ -20106,7 +20107,7 @@
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675318</t>
+          <t>2021-10-05 14:19:48.976336</t>
         </is>
       </c>
     </row>
@@ -20136,7 +20137,7 @@
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675321</t>
+          <t>2021-10-05 14:19:48.976338</t>
         </is>
       </c>
     </row>
@@ -20166,7 +20167,7 @@
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675323</t>
+          <t>2021-10-05 14:19:48.976341</t>
         </is>
       </c>
     </row>
@@ -20196,7 +20197,7 @@
       </c>
       <c r="F659" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675326</t>
+          <t>2021-10-05 14:19:48.976343</t>
         </is>
       </c>
     </row>
@@ -20226,7 +20227,7 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675328</t>
+          <t>2021-10-05 14:19:48.976346</t>
         </is>
       </c>
     </row>
@@ -20256,7 +20257,7 @@
       </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675331</t>
+          <t>2021-10-05 14:19:48.976348</t>
         </is>
       </c>
     </row>
@@ -20286,7 +20287,7 @@
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675333</t>
+          <t>2021-10-05 14:19:48.976351</t>
         </is>
       </c>
     </row>
@@ -20316,7 +20317,7 @@
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675336</t>
+          <t>2021-10-05 14:19:48.976354</t>
         </is>
       </c>
     </row>
@@ -20346,7 +20347,7 @@
       </c>
       <c r="F664" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675338</t>
+          <t>2021-10-05 14:19:48.976356</t>
         </is>
       </c>
     </row>
@@ -20376,7 +20377,7 @@
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675341</t>
+          <t>2021-10-05 14:19:48.976359</t>
         </is>
       </c>
     </row>
@@ -20406,7 +20407,7 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675343</t>
+          <t>2021-10-05 14:19:48.976361</t>
         </is>
       </c>
     </row>
@@ -20436,7 +20437,7 @@
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675346</t>
+          <t>2021-10-05 14:19:48.976364</t>
         </is>
       </c>
     </row>
@@ -20466,7 +20467,7 @@
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675348</t>
+          <t>2021-10-05 14:19:48.976367</t>
         </is>
       </c>
     </row>
@@ -20496,7 +20497,7 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675351</t>
+          <t>2021-10-05 14:19:48.976369</t>
         </is>
       </c>
     </row>
@@ -20526,7 +20527,7 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675353</t>
+          <t>2021-10-05 14:19:48.976372</t>
         </is>
       </c>
     </row>
@@ -20556,7 +20557,7 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675355</t>
+          <t>2021-10-05 14:19:48.976375</t>
         </is>
       </c>
     </row>
@@ -20586,7 +20587,7 @@
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675358</t>
+          <t>2021-10-05 14:19:48.976377</t>
         </is>
       </c>
     </row>
@@ -20616,7 +20617,7 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675360</t>
+          <t>2021-10-05 14:19:48.976380</t>
         </is>
       </c>
     </row>
@@ -20646,7 +20647,7 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675364</t>
+          <t>2021-10-05 14:19:48.976384</t>
         </is>
       </c>
     </row>
@@ -20676,7 +20677,7 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675367</t>
+          <t>2021-10-05 14:19:48.976388</t>
         </is>
       </c>
     </row>
@@ -20706,7 +20707,7 @@
       </c>
       <c r="F676" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675370</t>
+          <t>2021-10-05 14:19:48.976390</t>
         </is>
       </c>
     </row>
@@ -20736,7 +20737,7 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675372</t>
+          <t>2021-10-05 14:19:48.976393</t>
         </is>
       </c>
     </row>
@@ -20766,7 +20767,7 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675375</t>
+          <t>2021-10-05 14:19:48.976396</t>
         </is>
       </c>
     </row>
@@ -20796,7 +20797,7 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675378</t>
+          <t>2021-10-05 14:19:48.976399</t>
         </is>
       </c>
     </row>
@@ -20826,7 +20827,7 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675380</t>
+          <t>2021-10-05 14:19:48.976401</t>
         </is>
       </c>
     </row>
@@ -20856,7 +20857,7 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675382</t>
+          <t>2021-10-05 14:19:48.976404</t>
         </is>
       </c>
     </row>
@@ -20886,7 +20887,7 @@
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675385</t>
+          <t>2021-10-05 14:19:48.976407</t>
         </is>
       </c>
     </row>
@@ -20916,7 +20917,7 @@
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675388</t>
+          <t>2021-10-05 14:19:48.976409</t>
         </is>
       </c>
     </row>
@@ -20946,7 +20947,7 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675390</t>
+          <t>2021-10-05 14:19:48.976412</t>
         </is>
       </c>
     </row>
@@ -20976,7 +20977,7 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675393</t>
+          <t>2021-10-05 14:19:48.976415</t>
         </is>
       </c>
     </row>
@@ -21006,7 +21007,7 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675395</t>
+          <t>2021-10-05 14:19:48.976417</t>
         </is>
       </c>
     </row>
@@ -21036,7 +21037,7 @@
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675398</t>
+          <t>2021-10-05 14:19:48.976420</t>
         </is>
       </c>
     </row>
@@ -21066,7 +21067,7 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675401</t>
+          <t>2021-10-05 14:19:48.976422</t>
         </is>
       </c>
     </row>
@@ -21096,7 +21097,7 @@
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675403</t>
+          <t>2021-10-05 14:19:48.976425</t>
         </is>
       </c>
     </row>
@@ -21126,7 +21127,7 @@
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675406</t>
+          <t>2021-10-05 14:19:48.976427</t>
         </is>
       </c>
     </row>
@@ -21156,7 +21157,7 @@
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675408</t>
+          <t>2021-10-05 14:19:48.976430</t>
         </is>
       </c>
     </row>
@@ -21186,7 +21187,91 @@
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:17.675411</t>
+          <t>2021-10-05 14:19:48.976433</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>COVID-19 research</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>111</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-07-15T09:52:28.350336Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:19:48.971455</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.genomicsengland.co.uk/api/v1/panels/111/?format=json</t>
         </is>
       </c>
     </row>
